--- a/기타/스킬포인트 표.xlsx
+++ b/기타/스킬포인트 표.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\inha_1stproject\기타\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86E1249E-87D0-4FFD-90DD-5C5D6CBA9285}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A23089C-19D0-414B-9A56-F92D236DF7D3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0E6148DE-EF6D-4EB7-8763-FD3E6324BBDE}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>스킬</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -73,23 +73,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>공합 5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공속합5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이속합5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>lv100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lv200</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -104,13 +88,33 @@
     <t>공격력</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격합 20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공속합 20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이속합 20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lv50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="183" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -171,7 +175,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -181,16 +185,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -205,10 +209,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -220,19 +224,31 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -549,10 +565,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{830F9E45-A92E-417A-81C4-F9FBB9CD4163}">
-  <dimension ref="A1:AI47"/>
+  <dimension ref="A1:Y48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X5" sqref="X5"/>
+      <selection activeCell="AA28" sqref="AA28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -603,203 +619,183 @@
       <c r="A4" s="5"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9" t="s">
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="S4" s="10"/>
-      <c r="T4" s="10"/>
-      <c r="U4" s="10"/>
+      <c r="S4" s="23"/>
+      <c r="T4" s="23"/>
+      <c r="U4" s="23"/>
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
       <c r="X4" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
-      <c r="D5" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19" t="s">
+      <c r="D5" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19" t="s">
+      <c r="G5" s="22"/>
+      <c r="H5" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="19"/>
-      <c r="J5" s="20" t="s">
+      <c r="I5" s="22"/>
+      <c r="J5" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20" t="s">
+      <c r="K5" s="21"/>
+      <c r="L5" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20" t="s">
+      <c r="M5" s="21"/>
+      <c r="N5" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="O5" s="20"/>
-      <c r="P5" s="20" t="s">
+      <c r="O5" s="21"/>
+      <c r="P5" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="Q5" s="20"/>
-      <c r="R5" s="20" t="s">
+      <c r="Q5" s="21"/>
+      <c r="R5" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="S5" s="20"/>
-      <c r="T5" s="20" t="s">
+      <c r="S5" s="21"/>
+      <c r="T5" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="U5" s="20"/>
+      <c r="U5" s="21"/>
       <c r="V5" s="1"/>
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="17">
-        <v>1</v>
-      </c>
-      <c r="E6" s="7">
-        <v>1</v>
-      </c>
-      <c r="F6" s="16">
-        <v>2</v>
-      </c>
-      <c r="G6" s="11">
-        <v>10</v>
-      </c>
-      <c r="H6" s="17">
-        <v>1</v>
-      </c>
-      <c r="I6" s="7">
-        <v>1</v>
-      </c>
-      <c r="J6" s="16">
-        <v>2</v>
-      </c>
-      <c r="K6" s="11">
-        <v>10</v>
-      </c>
-      <c r="L6" s="17">
-        <v>1</v>
-      </c>
-      <c r="M6" s="7">
-        <v>1</v>
-      </c>
-      <c r="N6" s="16">
-        <v>2</v>
-      </c>
-      <c r="O6" s="11">
-        <v>10</v>
-      </c>
-      <c r="P6" s="15">
-        <v>10</v>
-      </c>
-      <c r="Q6" s="8">
-        <v>4</v>
-      </c>
-      <c r="R6" s="14">
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20">
+        <v>1</v>
+      </c>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20">
+        <v>0</v>
+      </c>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20">
+        <v>1</v>
+      </c>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19">
+        <v>0</v>
+      </c>
+      <c r="L6" s="19"/>
+      <c r="M6" s="20">
+        <v>1</v>
+      </c>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19">
+        <v>0</v>
+      </c>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19">
         <v>3</v>
       </c>
-      <c r="S6" s="1">
-        <v>10</v>
-      </c>
-      <c r="T6" s="15">
-        <v>1</v>
-      </c>
-      <c r="U6" s="8">
-        <v>1</v>
-      </c>
+      <c r="R6" s="19"/>
+      <c r="S6" s="19">
+        <v>0</v>
+      </c>
+      <c r="T6" s="19"/>
+      <c r="U6" s="19"/>
       <c r="V6" s="1"/>
       <c r="X6" s="1"/>
       <c r="Y6" s="1"/>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="17">
-        <v>2</v>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="16">
+        <v>1</v>
       </c>
       <c r="E7" s="7">
         <v>2</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="14">
         <v>2</v>
       </c>
       <c r="G7" s="11">
-        <v>20</v>
-      </c>
-      <c r="H7" s="17">
+        <v>10</v>
+      </c>
+      <c r="H7" s="16">
+        <v>1</v>
+      </c>
+      <c r="I7" s="18">
         <v>2</v>
       </c>
-      <c r="I7" s="7">
+      <c r="J7" s="14">
         <v>2</v>
       </c>
-      <c r="J7" s="16">
+      <c r="K7" s="11">
+        <v>10</v>
+      </c>
+      <c r="L7" s="16">
+        <v>1</v>
+      </c>
+      <c r="M7" s="18">
         <v>2</v>
       </c>
-      <c r="K7" s="11">
-        <v>20</v>
-      </c>
-      <c r="L7" s="17">
+      <c r="N7" s="14">
         <v>2</v>
       </c>
-      <c r="M7" s="7">
+      <c r="O7" s="11">
+        <v>10</v>
+      </c>
+      <c r="P7" s="15">
+        <v>10</v>
+      </c>
+      <c r="Q7" s="8">
+        <v>4</v>
+      </c>
+      <c r="R7" s="14">
         <v>2</v>
       </c>
-      <c r="N7" s="16">
-        <v>2</v>
-      </c>
-      <c r="O7" s="11">
-        <v>20</v>
-      </c>
-      <c r="P7" s="15">
-        <v>20</v>
-      </c>
-      <c r="Q7" s="8">
-        <v>5</v>
-      </c>
-      <c r="R7" s="14">
-        <v>6</v>
-      </c>
       <c r="S7" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="T7" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U7" s="8">
         <v>1</v>
@@ -811,57 +807,57 @@
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
       <c r="B8" s="13"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="18">
+      <c r="C8" s="13"/>
+      <c r="D8" s="16">
+        <v>1</v>
+      </c>
+      <c r="E8" s="7">
         <v>3</v>
       </c>
-      <c r="E8" s="13">
+      <c r="F8" s="14">
+        <v>4</v>
+      </c>
+      <c r="G8" s="11">
+        <v>20</v>
+      </c>
+      <c r="H8" s="16">
+        <v>1</v>
+      </c>
+      <c r="I8" s="18">
         <v>3</v>
       </c>
-      <c r="F8" s="16">
+      <c r="J8" s="14">
         <v>4</v>
       </c>
-      <c r="G8" s="11">
-        <v>30</v>
-      </c>
-      <c r="H8" s="18">
+      <c r="K8" s="11">
+        <v>20</v>
+      </c>
+      <c r="L8" s="16">
+        <v>1</v>
+      </c>
+      <c r="M8" s="18">
         <v>3</v>
       </c>
-      <c r="I8" s="13">
-        <v>3</v>
-      </c>
-      <c r="J8" s="16">
+      <c r="N8" s="14">
         <v>4</v>
       </c>
-      <c r="K8" s="11">
-        <v>30</v>
-      </c>
-      <c r="L8" s="18">
-        <v>3</v>
-      </c>
-      <c r="M8" s="13">
-        <v>3</v>
-      </c>
-      <c r="N8" s="16">
+      <c r="O8" s="11">
+        <v>20</v>
+      </c>
+      <c r="P8" s="15">
+        <v>20</v>
+      </c>
+      <c r="Q8" s="8">
+        <v>5</v>
+      </c>
+      <c r="R8" s="14">
         <v>4</v>
       </c>
-      <c r="O8" s="11">
-        <v>30</v>
-      </c>
-      <c r="P8" s="15">
-        <v>30</v>
-      </c>
-      <c r="Q8" s="8">
-        <v>6</v>
-      </c>
-      <c r="R8" s="14">
-        <v>9</v>
-      </c>
       <c r="S8" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="T8" s="15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U8" s="8">
         <v>1</v>
@@ -873,57 +869,57 @@
     <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
       <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
+      <c r="C9" s="7"/>
       <c r="D9" s="17">
+        <v>1</v>
+      </c>
+      <c r="E9" s="13">
         <v>4</v>
       </c>
-      <c r="E9" s="7">
+      <c r="F9" s="14">
+        <v>6</v>
+      </c>
+      <c r="G9" s="11">
+        <v>30</v>
+      </c>
+      <c r="H9" s="17">
+        <v>1</v>
+      </c>
+      <c r="I9" s="13">
         <v>4</v>
       </c>
-      <c r="F9" s="16">
+      <c r="J9" s="14">
+        <v>6</v>
+      </c>
+      <c r="K9" s="11">
+        <v>30</v>
+      </c>
+      <c r="L9" s="17">
+        <v>1</v>
+      </c>
+      <c r="M9" s="13">
         <v>4</v>
       </c>
-      <c r="G9" s="11">
-        <v>40</v>
-      </c>
-      <c r="H9" s="17">
-        <v>4</v>
-      </c>
-      <c r="I9" s="7">
-        <v>4</v>
-      </c>
-      <c r="J9" s="16">
-        <v>4</v>
-      </c>
-      <c r="K9" s="11">
-        <v>40</v>
-      </c>
-      <c r="L9" s="17">
-        <v>4</v>
-      </c>
-      <c r="M9" s="7">
-        <v>4</v>
-      </c>
-      <c r="N9" s="16">
-        <v>4</v>
+      <c r="N9" s="14">
+        <v>6</v>
       </c>
       <c r="O9" s="11">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="P9" s="15">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R9" s="14">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="S9" s="1">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="T9" s="15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U9" s="8">
         <v>1</v>
@@ -935,57 +931,57 @@
     <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
       <c r="B10" s="13"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="17">
+      <c r="C10" s="13"/>
+      <c r="D10" s="16">
+        <v>1</v>
+      </c>
+      <c r="E10" s="18">
         <v>5</v>
       </c>
-      <c r="E10" s="7">
+      <c r="F10" s="14">
+        <v>8</v>
+      </c>
+      <c r="G10" s="11">
+        <v>40</v>
+      </c>
+      <c r="H10" s="16">
+        <v>1</v>
+      </c>
+      <c r="I10" s="18">
         <v>5</v>
       </c>
-      <c r="F10" s="16">
-        <v>6</v>
-      </c>
-      <c r="G10" s="11">
-        <v>50</v>
-      </c>
-      <c r="H10" s="17">
+      <c r="J10" s="14">
+        <v>8</v>
+      </c>
+      <c r="K10" s="11">
+        <v>40</v>
+      </c>
+      <c r="L10" s="16">
+        <v>1</v>
+      </c>
+      <c r="M10" s="18">
         <v>5</v>
       </c>
-      <c r="I10" s="7">
-        <v>5</v>
-      </c>
-      <c r="J10" s="16">
-        <v>6</v>
-      </c>
-      <c r="K10" s="11">
-        <v>50</v>
-      </c>
-      <c r="L10" s="17">
-        <v>5</v>
-      </c>
-      <c r="M10" s="7">
-        <v>5</v>
-      </c>
-      <c r="N10" s="16">
-        <v>6</v>
+      <c r="N10" s="14">
+        <v>8</v>
       </c>
       <c r="O10" s="11">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="P10" s="15">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="Q10" s="8">
+        <v>7</v>
+      </c>
+      <c r="R10" s="14">
         <v>8</v>
       </c>
-      <c r="R10" s="14">
-        <v>15</v>
-      </c>
       <c r="S10" s="1">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="T10" s="15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U10" s="8">
         <v>1</v>
@@ -997,57 +993,57 @@
     <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="17">
+      <c r="C11" s="7"/>
+      <c r="D11" s="16">
+        <v>1</v>
+      </c>
+      <c r="E11" s="13">
         <v>6</v>
       </c>
-      <c r="E11" s="7">
+      <c r="F11" s="14">
+        <v>10</v>
+      </c>
+      <c r="G11" s="11">
+        <v>50</v>
+      </c>
+      <c r="H11" s="16">
+        <v>1</v>
+      </c>
+      <c r="I11" s="13">
         <v>6</v>
       </c>
-      <c r="F11" s="16">
+      <c r="J11" s="14">
+        <v>10</v>
+      </c>
+      <c r="K11" s="11">
+        <v>50</v>
+      </c>
+      <c r="L11" s="16">
+        <v>1</v>
+      </c>
+      <c r="M11" s="13">
         <v>6</v>
       </c>
-      <c r="G11" s="11">
-        <v>60</v>
-      </c>
-      <c r="H11" s="17">
-        <v>6</v>
-      </c>
-      <c r="I11" s="7">
-        <v>6</v>
-      </c>
-      <c r="J11" s="16">
-        <v>6</v>
-      </c>
-      <c r="K11" s="11">
-        <v>60</v>
-      </c>
-      <c r="L11" s="17">
-        <v>6</v>
-      </c>
-      <c r="M11" s="7">
-        <v>6</v>
-      </c>
-      <c r="N11" s="16">
-        <v>6</v>
+      <c r="N11" s="14">
+        <v>10</v>
       </c>
       <c r="O11" s="11">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="P11" s="15">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="Q11" s="8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R11" s="14">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="S11" s="1">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="T11" s="15">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U11" s="8">
         <v>1</v>
@@ -1059,57 +1055,57 @@
     <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="13"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="17">
+      <c r="C12" s="13"/>
+      <c r="D12" s="16">
+        <v>1</v>
+      </c>
+      <c r="E12" s="18">
         <v>7</v>
       </c>
-      <c r="E12" s="7">
+      <c r="F12" s="14">
+        <v>12</v>
+      </c>
+      <c r="G12" s="11">
+        <v>60</v>
+      </c>
+      <c r="H12" s="16">
+        <v>1</v>
+      </c>
+      <c r="I12" s="18">
         <v>7</v>
       </c>
-      <c r="F12" s="16">
-        <v>8</v>
-      </c>
-      <c r="G12" s="11">
-        <v>70</v>
-      </c>
-      <c r="H12" s="17">
+      <c r="J12" s="14">
+        <v>12</v>
+      </c>
+      <c r="K12" s="11">
+        <v>60</v>
+      </c>
+      <c r="L12" s="16">
+        <v>1</v>
+      </c>
+      <c r="M12" s="18">
         <v>7</v>
       </c>
-      <c r="I12" s="7">
-        <v>7</v>
-      </c>
-      <c r="J12" s="16">
-        <v>8</v>
-      </c>
-      <c r="K12" s="11">
-        <v>70</v>
-      </c>
-      <c r="L12" s="17">
-        <v>7</v>
-      </c>
-      <c r="M12" s="7">
-        <v>7</v>
-      </c>
-      <c r="N12" s="16">
-        <v>8</v>
+      <c r="N12" s="14">
+        <v>12</v>
       </c>
       <c r="O12" s="11">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="P12" s="15">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="Q12" s="8">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R12" s="14">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="S12" s="1">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="T12" s="15">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="U12" s="8">
         <v>1</v>
@@ -1121,57 +1117,57 @@
     <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="17">
+      <c r="C13" s="7"/>
+      <c r="D13" s="16">
+        <v>1</v>
+      </c>
+      <c r="E13" s="13">
         <v>8</v>
       </c>
-      <c r="E13" s="7">
+      <c r="F13" s="14">
+        <v>14</v>
+      </c>
+      <c r="G13" s="11">
+        <v>70</v>
+      </c>
+      <c r="H13" s="16">
+        <v>1</v>
+      </c>
+      <c r="I13" s="13">
         <v>8</v>
       </c>
-      <c r="F13" s="16">
+      <c r="J13" s="14">
+        <v>14</v>
+      </c>
+      <c r="K13" s="11">
+        <v>70</v>
+      </c>
+      <c r="L13" s="16">
+        <v>1</v>
+      </c>
+      <c r="M13" s="13">
         <v>8</v>
       </c>
-      <c r="G13" s="11">
-        <v>80</v>
-      </c>
-      <c r="H13" s="17">
-        <v>8</v>
-      </c>
-      <c r="I13" s="7">
-        <v>8</v>
-      </c>
-      <c r="J13" s="16">
-        <v>8</v>
-      </c>
-      <c r="K13" s="11">
-        <v>80</v>
-      </c>
-      <c r="L13" s="17">
-        <v>8</v>
-      </c>
-      <c r="M13" s="7">
-        <v>8</v>
-      </c>
-      <c r="N13" s="16">
-        <v>8</v>
+      <c r="N13" s="14">
+        <v>14</v>
       </c>
       <c r="O13" s="11">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="P13" s="15">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="Q13" s="8">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R13" s="14">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="S13" s="1">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="T13" s="15">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="U13" s="8">
         <v>1</v>
@@ -1183,57 +1179,57 @@
     <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
       <c r="B14" s="13"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="17">
+      <c r="C14" s="13"/>
+      <c r="D14" s="16">
+        <v>1</v>
+      </c>
+      <c r="E14" s="18">
         <v>9</v>
       </c>
-      <c r="E14" s="7">
+      <c r="F14" s="14">
+        <v>16</v>
+      </c>
+      <c r="G14" s="11">
+        <v>80</v>
+      </c>
+      <c r="H14" s="16">
+        <v>1</v>
+      </c>
+      <c r="I14" s="18">
         <v>9</v>
       </c>
-      <c r="F14" s="16">
-        <v>10</v>
-      </c>
-      <c r="G14" s="11">
-        <v>90</v>
-      </c>
-      <c r="H14" s="17">
+      <c r="J14" s="14">
+        <v>16</v>
+      </c>
+      <c r="K14" s="11">
+        <v>80</v>
+      </c>
+      <c r="L14" s="16">
+        <v>1</v>
+      </c>
+      <c r="M14" s="18">
         <v>9</v>
       </c>
-      <c r="I14" s="7">
-        <v>9</v>
-      </c>
-      <c r="J14" s="16">
-        <v>10</v>
-      </c>
-      <c r="K14" s="11">
-        <v>90</v>
-      </c>
-      <c r="L14" s="17">
-        <v>9</v>
-      </c>
-      <c r="M14" s="7">
-        <v>9</v>
-      </c>
-      <c r="N14" s="16">
-        <v>10</v>
+      <c r="N14" s="14">
+        <v>16</v>
       </c>
       <c r="O14" s="11">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="P14" s="15">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="Q14" s="8">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R14" s="14">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="S14" s="1">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="T14" s="15">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="U14" s="8">
         <v>1</v>
@@ -1245,53 +1241,57 @@
     <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
       <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="17">
+      <c r="C15" s="7"/>
+      <c r="D15" s="16">
+        <v>1</v>
+      </c>
+      <c r="E15" s="13">
         <v>10</v>
       </c>
-      <c r="E15" s="7">
+      <c r="F15" s="14">
+        <v>18</v>
+      </c>
+      <c r="G15" s="11">
+        <v>90</v>
+      </c>
+      <c r="H15" s="16">
+        <v>1</v>
+      </c>
+      <c r="I15" s="13">
         <v>10</v>
       </c>
-      <c r="F15" s="16">
+      <c r="J15" s="14">
+        <v>18</v>
+      </c>
+      <c r="K15" s="11">
+        <v>90</v>
+      </c>
+      <c r="L15" s="16">
+        <v>1</v>
+      </c>
+      <c r="M15" s="13">
         <v>10</v>
       </c>
-      <c r="G15" s="11">
-        <v>100</v>
-      </c>
-      <c r="H15" s="17">
-        <v>10</v>
-      </c>
-      <c r="I15" s="7">
-        <v>10</v>
-      </c>
-      <c r="J15" s="16">
-        <v>10</v>
-      </c>
-      <c r="K15" s="11">
-        <v>100</v>
-      </c>
-      <c r="L15" s="17">
-        <v>10</v>
-      </c>
-      <c r="M15" s="7">
-        <v>10</v>
-      </c>
-      <c r="N15" s="16">
-        <v>10</v>
+      <c r="N15" s="14">
+        <v>18</v>
       </c>
       <c r="O15" s="11">
-        <v>100</v>
-      </c>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="8"/>
+        <v>90</v>
+      </c>
+      <c r="P15" s="15">
+        <v>90</v>
+      </c>
+      <c r="Q15" s="8">
+        <v>12</v>
+      </c>
       <c r="R15" s="14">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="S15" s="1">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="T15" s="15">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="U15" s="8">
         <v>1</v>
@@ -1303,23 +1303,56 @@
     <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
       <c r="B16" s="13"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="8"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="16">
+        <v>1</v>
+      </c>
+      <c r="E16" s="18">
+        <v>11</v>
+      </c>
+      <c r="F16" s="14">
+        <v>20</v>
+      </c>
+      <c r="G16" s="11">
+        <v>100</v>
+      </c>
+      <c r="H16" s="16">
+        <v>1</v>
+      </c>
+      <c r="I16" s="18">
+        <v>11</v>
+      </c>
+      <c r="J16" s="14">
+        <v>20</v>
+      </c>
+      <c r="K16" s="11">
+        <v>100</v>
+      </c>
+      <c r="L16" s="16">
+        <v>1</v>
+      </c>
+      <c r="M16" s="18">
+        <v>11</v>
+      </c>
+      <c r="N16" s="14">
+        <v>20</v>
+      </c>
+      <c r="O16" s="11">
+        <v>100</v>
+      </c>
       <c r="P16" s="8"/>
       <c r="Q16" s="8"/>
-      <c r="T16" s="1" t="s">
-        <v>15</v>
+      <c r="R16" s="14">
+        <v>20</v>
+      </c>
+      <c r="S16" s="1">
+        <v>100</v>
+      </c>
+      <c r="T16" s="15">
+        <v>10</v>
+      </c>
+      <c r="U16" s="8">
+        <v>1</v>
       </c>
       <c r="V16" s="1"/>
       <c r="X16" s="1"/>
@@ -1328,26 +1361,29 @@
     <row r="17" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A17" s="5"/>
       <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="E17" s="7"/>
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
+      <c r="H17" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I17" s="9"/>
       <c r="J17" s="12"/>
       <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
+      <c r="L17" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="M17" s="9"/>
       <c r="N17" s="12"/>
       <c r="O17" s="8"/>
       <c r="P17" s="8"/>
       <c r="Q17" s="8"/>
-      <c r="T17" s="14">
-        <v>100</v>
-      </c>
-      <c r="U17" s="8">
-        <v>1</v>
+      <c r="T17" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="V17" s="1"/>
       <c r="X17" s="1"/>
@@ -1356,40 +1392,55 @@
     <row r="18" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A18" s="5"/>
       <c r="B18" s="13"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="14">
+        <v>1</v>
+      </c>
+      <c r="E18" s="10">
+        <v>100</v>
+      </c>
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
+      <c r="H18" s="14">
+        <v>1</v>
+      </c>
+      <c r="I18" s="10">
+        <v>100</v>
+      </c>
       <c r="J18" s="12"/>
       <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
+      <c r="L18" s="14">
+        <v>1</v>
+      </c>
+      <c r="M18" s="10">
+        <v>100</v>
+      </c>
       <c r="N18" s="12"/>
       <c r="O18" s="8"/>
       <c r="P18" s="8"/>
       <c r="Q18" s="8"/>
+      <c r="T18" s="14">
+        <v>100</v>
+      </c>
+      <c r="U18" s="8">
+        <v>1</v>
+      </c>
       <c r="V18" s="1"/>
       <c r="X18" s="1"/>
       <c r="Y18" s="1"/>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A19" s="5"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="7"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
       <c r="V19" s="1"/>
       <c r="X19" s="1"/>
       <c r="Y19" s="1"/>
@@ -1397,17 +1448,17 @@
     <row r="20" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
       <c r="B20" s="2"/>
-      <c r="C20" s="7"/>
+      <c r="C20" s="13"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
       <c r="N20" s="3"/>
       <c r="V20" s="1"/>
       <c r="X20" s="1"/>
@@ -1416,17 +1467,17 @@
     <row r="21" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A21" s="5"/>
       <c r="B21" s="2"/>
-      <c r="C21" s="13"/>
+      <c r="C21" s="7"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
       <c r="N21" s="3"/>
       <c r="V21" s="1"/>
       <c r="X21" s="1"/>
@@ -1435,17 +1486,17 @@
     <row r="22" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A22" s="5"/>
       <c r="B22" s="2"/>
-      <c r="C22" s="7"/>
+      <c r="C22" s="13"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
       <c r="N22" s="3"/>
       <c r="V22" s="1"/>
       <c r="X22" s="1"/>
@@ -1454,17 +1505,17 @@
     <row r="23" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A23" s="5"/>
       <c r="B23" s="2"/>
-      <c r="C23" s="13"/>
+      <c r="C23" s="7"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
       <c r="N23" s="3"/>
       <c r="V23" s="1"/>
       <c r="X23" s="1"/>
@@ -1473,17 +1524,17 @@
     <row r="24" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A24" s="5"/>
       <c r="B24" s="2"/>
-      <c r="C24" s="7"/>
+      <c r="C24" s="13"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
       <c r="N24" s="3"/>
       <c r="V24" s="1"/>
       <c r="X24" s="1"/>
@@ -1492,17 +1543,17 @@
     <row r="25" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A25" s="5"/>
       <c r="B25" s="2"/>
-      <c r="C25" s="13"/>
+      <c r="C25" s="7"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
       <c r="N25" s="3"/>
       <c r="V25" s="1"/>
       <c r="X25" s="1"/>
@@ -1511,77 +1562,79 @@
     <row r="26" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A26" s="5"/>
       <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="3"/>
       <c r="V26" s="1"/>
-      <c r="W26" s="1"/>
       <c r="X26" s="1"/>
       <c r="Y26" s="1"/>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="B27" s="1"/>
-      <c r="D27" s="2">
-        <f>SUM(D6:D15)</f>
-        <v>55</v>
-      </c>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2">
-        <f>SUM(F6:F15)</f>
-        <v>60</v>
-      </c>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2">
-        <f>SUM(H6:H15)</f>
-        <v>55</v>
-      </c>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2">
-        <f>SUM(J6:J15)</f>
-        <v>60</v>
-      </c>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2">
-        <f>SUM(L6:L15)</f>
-        <v>55</v>
-      </c>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2">
-        <f>SUM(N6:N15)</f>
-        <v>60</v>
-      </c>
-      <c r="O27" s="2"/>
-      <c r="P27" s="2">
-        <f>SUM(P6:P15)</f>
+      <c r="A27" s="5"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="V27" s="1"/>
+      <c r="W27" s="1"/>
+      <c r="X27" s="1"/>
+      <c r="Y27" s="1"/>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="B28" s="1"/>
+      <c r="D28" s="2">
+        <v>99</v>
+      </c>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2">
+        <f>SUM(F7:F16)</f>
+        <v>110</v>
+      </c>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2">
+        <v>99</v>
+      </c>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2">
+        <f>SUM(J7:J16)</f>
+        <v>110</v>
+      </c>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2">
+        <v>99</v>
+      </c>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2">
+        <f>SUM(N7:N16)</f>
+        <v>110</v>
+      </c>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2">
+        <f>SUM(P7:P16)</f>
         <v>450</v>
       </c>
-      <c r="Q27" s="2"/>
-      <c r="R27" s="2">
-        <f>SUM(R6:R25)</f>
-        <v>165</v>
-      </c>
-      <c r="S27" s="2"/>
-      <c r="T27" s="2">
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2">
+        <f>SUM(R7:R26)</f>
+        <v>110</v>
+      </c>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2">
         <f>(1+100)*50</f>
         <v>5050</v>
       </c>
-      <c r="U27" s="2"/>
-      <c r="V27" s="1">
-        <f>SUM(D27:S27)</f>
-        <v>960</v>
-      </c>
-      <c r="W27" s="1"/>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="B28" s="1"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
-      <c r="V28" s="1"/>
+      <c r="U28" s="2"/>
+      <c r="V28" s="1">
+        <f>SUM(D28:S28)</f>
+        <v>1187</v>
+      </c>
       <c r="W28" s="1"/>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.3">
@@ -1599,6 +1652,7 @@
       <c r="W29" s="1"/>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="B30" s="1"/>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
@@ -1609,6 +1663,7 @@
       <c r="N30" s="3"/>
       <c r="O30" s="3"/>
       <c r="V30" s="1"/>
+      <c r="W30" s="1"/>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.3">
       <c r="G31" s="3"/>
@@ -1623,7 +1678,6 @@
       <c r="V31" s="1"/>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="F32" s="3"/>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
@@ -1632,6 +1686,8 @@
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="V32" s="1"/>
     </row>
     <row r="33" spans="6:14" x14ac:dyDescent="0.3">
       <c r="F33" s="3"/>
@@ -1667,15 +1723,15 @@
       <c r="N35" s="3"/>
     </row>
     <row r="36" spans="6:14" x14ac:dyDescent="0.3">
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
-      <c r="K36" s="4"/>
-      <c r="L36" s="4"/>
-      <c r="M36" s="4"/>
-      <c r="N36" s="4"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
     </row>
     <row r="37" spans="6:14" x14ac:dyDescent="0.3">
       <c r="F37" s="4"/>
@@ -1797,6 +1853,17 @@
       <c r="L47" s="4"/>
       <c r="M47" s="4"/>
       <c r="N47" s="4"/>
+    </row>
+    <row r="48" spans="6:14" x14ac:dyDescent="0.3">
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
+      <c r="K48" s="4"/>
+      <c r="L48" s="4"/>
+      <c r="M48" s="4"/>
+      <c r="N48" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="18">
@@ -1809,6 +1876,8 @@
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="L4:M4"/>
     <mergeCell ref="N4:O4"/>
+    <mergeCell ref="T5:U5"/>
+    <mergeCell ref="P5:Q5"/>
     <mergeCell ref="R5:S5"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="F5:G5"/>
@@ -1816,8 +1885,6 @@
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="L5:M5"/>
     <mergeCell ref="N5:O5"/>
-    <mergeCell ref="T5:U5"/>
-    <mergeCell ref="P5:Q5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
